--- a/módulo 10/aula-grafico-dinamico.xlsx
+++ b/módulo 10/aula-grafico-dinamico.xlsx
@@ -5,26 +5,80 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Documents\Curso Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDeDados" sheetId="2" r:id="rId1"/>
+    <sheet name="TDVendas" sheetId="3" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_aulagraficodinamico.xlsxTBVendas1" hidden="1">TBVendas[]</definedName>
+    <definedName name="SegmentaçãodeDados_Ano">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="27" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="21" r:id="rId5"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="TBVendas-3e296435-892b-466d-bf80-c4983e9f5f61" name="TBVendas" connection="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Modelo de Dados" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="TBVendas-3e296435-892b-466d-bf80-c4983e9f5f61" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_aulagraficodinamico.xlsxTBVendas1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
   <si>
     <t>Mês</t>
   </si>
@@ -67,17 +121,38 @@
   <si>
     <t>Negócios Fechados</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Soma de Valor Vendido</t>
+  </si>
+  <si>
+    <t>Tirar os filtros do gráfico dinamico: clica no gráfico/analisar/Botões de campos/ocultar tudo</t>
+  </si>
+  <si>
+    <t>Painel de vendas</t>
+  </si>
+  <si>
+    <t>Inserir segmentação de dados: clica no gráfico/analisar/segmentação de dados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +167,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,15 +216,15 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -129,6 +232,16 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -153,7 +266,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -190,7 +303,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -208,10 +321,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -236,6 +349,2203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[aula-grafico-dinamico.xlsx]TDVendas!Tabela dinâmica1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vendas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anakin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$B$5:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11731</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barry Allen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1317400256"/>
+        <c:axId val="-1317412224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1317400256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1317412224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1317412224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1317400256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Ano"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="876301"/>
+              <a:ext cx="1905000" cy="971550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Vendedor"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="1933576"/>
+              <a:ext cx="1885950" cy="1847850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Jai" refreshedDate="45369.626699768516" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[TBVendas].[Ano].[Ano]" caption="Ano" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2016" count="1">
+        <n v="2016"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[TBVendas].[Ano].&amp;[2016]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[TBVendas].[Mês].[Mês]" caption="Mês" numFmtId="0" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[TBVendas].[Mês].&amp;[1]"/>
+            <x15:cachedUniqueName index="1" name="[TBVendas].[Mês].&amp;[2]"/>
+            <x15:cachedUniqueName index="2" name="[TBVendas].[Mês].&amp;[3]"/>
+            <x15:cachedUniqueName index="3" name="[TBVendas].[Mês].&amp;[4]"/>
+            <x15:cachedUniqueName index="4" name="[TBVendas].[Mês].&amp;[5]"/>
+            <x15:cachedUniqueName index="5" name="[TBVendas].[Mês].&amp;[6]"/>
+            <x15:cachedUniqueName index="6" name="[TBVendas].[Mês].&amp;[7]"/>
+            <x15:cachedUniqueName index="7" name="[TBVendas].[Mês].&amp;[8]"/>
+            <x15:cachedUniqueName index="8" name="[TBVendas].[Mês].&amp;[9]"/>
+            <x15:cachedUniqueName index="9" name="[TBVendas].[Mês].&amp;[10]"/>
+            <x15:cachedUniqueName index="10" name="[TBVendas].[Mês].&amp;[11]"/>
+            <x15:cachedUniqueName index="11" name="[TBVendas].[Mês].&amp;[12]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[TBVendas].[Vendedor].[Vendedor]" caption="Vendedor" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="8">
+        <s v="Anakin"/>
+        <s v="Barry Allen"/>
+        <s v="Kal-El" u="1"/>
+        <s v="Logan" u="1"/>
+        <s v="Padmé Amidala" u="1"/>
+        <s v="Rachel Roth" u="1"/>
+        <s v="Victor Von Doom" u="1"/>
+        <s v="Wanda Maximoff" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" numFmtId="0" hierarchy="6" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="9">
+    <cacheHierarchy uniqueName="[TBVendas].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[TBVendas].[Mês].[All]" allUniqueName="[TBVendas].[Mês].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[TBVendas].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[TBVendas].[Ano].[All]" allUniqueName="[TBVendas].[Ano].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[TBVendas].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[TBVendas].[Vendedor].[All]" allUniqueName="[TBVendas].[Vendedor].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[TBVendas].[Clientes visitados]" caption="Clientes visitados" attribute="1" defaultMemberUniqueName="[TBVendas].[Clientes visitados].[All]" allUniqueName="[TBVendas].[Clientes visitados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Negócios Fechados]" caption="Negócios Fechados" attribute="1" defaultMemberUniqueName="[TBVendas].[Negócios Fechados].[All]" allUniqueName="[TBVendas].[Negócios Fechados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Valor Vendido]" caption="Valor Vendido" attribute="1" defaultMemberUniqueName="[TBVendas].[Valor Vendido].[All]" allUniqueName="[TBVendas].[Valor Vendido].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" measure="1" displayFolder="" measureGroup="TBVendas" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count TBVendas]" caption="__XL_Count TBVendas" measure="1" displayFolder="" measureGroup="TBVendas" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="TBVendas" uniqueName="[TBVendas]" caption="TBVendas"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="TBVendas" caption="TBVendas"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Jai" refreshedDate="45369.626318865739" backgroundQuery="1" createdVersion="3" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="9">
+    <cacheHierarchy uniqueName="[TBVendas].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[TBVendas].[Mês].[All]" allUniqueName="[TBVendas].[Mês].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[TBVendas].[Ano].[All]" allUniqueName="[TBVendas].[Ano].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[TBVendas].[Vendedor].[All]" allUniqueName="[TBVendas].[Vendedor].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Clientes visitados]" caption="Clientes visitados" attribute="1" defaultMemberUniqueName="[TBVendas].[Clientes visitados].[All]" allUniqueName="[TBVendas].[Clientes visitados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Negócios Fechados]" caption="Negócios Fechados" attribute="1" defaultMemberUniqueName="[TBVendas].[Negócios Fechados].[All]" allUniqueName="[TBVendas].[Negócios Fechados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[TBVendas].[Valor Vendido]" caption="Valor Vendido" attribute="1" defaultMemberUniqueName="[TBVendas].[Valor Vendido].[All]" allUniqueName="[TBVendas].[Valor Vendido].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" measure="1" displayFolder="" measureGroup="TBVendas" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count TBVendas]" caption="__XL_Count TBVendas" measure="1" displayFolder="" measureGroup="TBVendas" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item s="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="9">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Vendido" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="9">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas">
+        <x15:activeTabTopLevelEntity name="[TBVendas]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano" sourceName="[TBVendas].[Ano]">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1">
+      <levels count="2">
+        <level uniqueName="[TBVendas].[Ano].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[TBVendas].[Ano].[Ano]" sourceCaption="Ano" count="3">
+          <ranges>
+            <range startItem="0">
+              <i n="[TBVendas].[Ano].&amp;[2016]" c="2016"/>
+              <i n="[TBVendas].[Ano].&amp;[2017]" c="2017"/>
+              <i n="[TBVendas].[Ano].&amp;[2018]" c="2018"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[TBVendas].[Ano].&amp;[2016]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="[TBVendas].[Vendedor]">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1">
+      <levels count="2">
+        <level uniqueName="[TBVendas].[Vendedor].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[TBVendas].[Vendedor].[Vendedor]" sourceCaption="Vendedor" count="8">
+          <ranges>
+            <range startItem="0">
+              <i n="[TBVendas].[Vendedor].&amp;[Anakin]" c="Anakin"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Barry Allen]" c="Barry Allen"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Kal-El]" c="Kal-El"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Logan]" c="Logan"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Padmé Amidala]" c="Padmé Amidala"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Rachel Roth]" c="Rachel Roth"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Victor Von Doom]" c="Victor Von Doom"/>
+              <i n="[TBVendas].[Vendedor].&amp;[Wanda Maximoff]" c="Wanda Maximoff"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="2">
+        <selection n="[TBVendas].[Vendedor].&amp;[Anakin]"/>
+        <selection n="[TBVendas].[Vendedor].&amp;[Barry Allen]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Ano" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" level="1" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Vendedor" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" level="1" style="SlicerStyleLight6" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,7 +2862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6029,4 +8341,315 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <v>176775</v>
+      </c>
+      <c r="C5" s="8">
+        <v>179155</v>
+      </c>
+      <c r="D5" s="8">
+        <v>355930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>16020</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21591</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12624</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21216</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15883</v>
+      </c>
+      <c r="C8" s="8">
+        <v>14038</v>
+      </c>
+      <c r="D8" s="8">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6436</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10816</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>21220</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>28522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>21707</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12927</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9788</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15731</v>
+      </c>
+      <c r="D12" s="8">
+        <v>25519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5681</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21601</v>
+      </c>
+      <c r="D13" s="8">
+        <v>27282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15541</v>
+      </c>
+      <c r="C14" s="8">
+        <v>19284</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>11731</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11709</v>
+      </c>
+      <c r="D15" s="8">
+        <v>23440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19349</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10557</v>
+      </c>
+      <c r="D16" s="8">
+        <v>29906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20795</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12383</v>
+      </c>
+      <c r="D17" s="8">
+        <v>33178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>176775</v>
+      </c>
+      <c r="C18" s="8">
+        <v>179155</v>
+      </c>
+      <c r="D18" s="8">
+        <v>355930</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/módulo 10/aula-grafico-dinamico.xlsx
+++ b/módulo 10/aula-grafico-dinamico.xlsx
@@ -9,32 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="BaseDeDados" sheetId="2" r:id="rId1"/>
-    <sheet name="TDVendas" sheetId="3" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="TDVendas" sheetId="11" r:id="rId1"/>
+    <sheet name="TDVendasPerdidas" sheetId="12" r:id="rId2"/>
+    <sheet name="BaseDeDados" sheetId="2" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_aulagraficodinamico.xlsxTBVendas1" hidden="1">TBVendas[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TDvendasperdidasB5J71" hidden="1">'[1]TD vendasperdidas'!$B$5:$J$7</definedName>
     <definedName name="SegmentaçãodeDados_Ano">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId4"/>
+    <pivotCache cacheId="155" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
-      <x14:pivotCaches>
-        <pivotCache cacheId="21" r:id="rId5"/>
-      </x14:pivotCaches>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +45,7 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
-          <x15:modelTable id="TBVendas-3e296435-892b-466d-bf80-c4983e9f5f61" name="TBVendas" connection="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas"/>
+          <x15:modelTable id="Intervalo-0becaaf8-0f8a-4fe7-a349-5fd07f56e3c1" name="Intervalo" connection="WorksheetConnection_TD vendas perdidas!$B$5:$J$7"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -65,11 +64,11 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas" type="102" refreshedVersion="5" minRefreshableVersion="5">
+  <connection id="2" name="WorksheetConnection_TD vendas perdidas!$B$5:$J$7" type="102" refreshedVersion="5" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="TBVendas-3e296435-892b-466d-bf80-c4983e9f5f61" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_aulagraficodinamico.xlsxTBVendas1"/>
+        <x15:connection id="Intervalo-0becaaf8-0f8a-4fe7-a349-5fd07f56e3c1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TDvendasperdidasB5J71"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="24">
   <si>
     <t>Mês</t>
   </si>
@@ -141,6 +140,15 @@
   </si>
   <si>
     <t>Inserir segmentação de dados: clica no gráfico/analisar/segmentação de dados</t>
+  </si>
+  <si>
+    <t>Soma de Vendas Perdidas</t>
+  </si>
+  <si>
+    <t>Ativar a segmentação de dados para os gráficos: clica com botão direito no filtro de segmentação de dados</t>
+  </si>
+  <si>
+    <t>vai em conexões do relatório/seleciona as tabelas dinamicas criadas(Devem ser da mesma base de dados)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +226,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -243,6 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -365,7 +374,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[aula-grafico-dinamico.xlsx]TDVendas!Tabela dinâmica1</c:name>
+    <c:name>[aula-grafico-dinamico.xlsx]TDVendas!Tabela dinâmica5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -835,6 +844,231 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -869,9 +1103,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$18</c:f>
+              <c:f>TDVendas!$A$5:$A$31</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -909,10 +1143,49 @@
                   <c:pt idx="11">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -920,10 +1193,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$B$5:$B$18</c:f>
+              <c:f>TDVendas!$B$5:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>16020</c:v>
                 </c:pt>
@@ -960,6 +1233,42 @@
                 <c:pt idx="11">
                   <c:v>20795</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>18787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -993,9 +1302,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$18</c:f>
+              <c:f>TDVendas!$A$5:$A$31</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1033,10 +1342,49 @@
                   <c:pt idx="11">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1044,10 +1392,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$C$5:$C$18</c:f>
+              <c:f>TDVendas!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>21591</c:v>
                 </c:pt>
@@ -1084,6 +1432,440 @@
                 <c:pt idx="11">
                   <c:v>12383</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>16423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6723</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8860</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13335</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18747</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kal-El</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$D$5:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15608</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10740</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20474</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14770</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17633</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendas!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Padmé Amidala</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendas!$E$5:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11507</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11553</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14618</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9564</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18174</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1098,11 +1880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1317400256"/>
-        <c:axId val="-1317412224"/>
+        <c:axId val="1323547056"/>
+        <c:axId val="1323532368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1317400256"/>
+        <c:axId val="1323547056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1927,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1317412224"/>
+        <c:crossAx val="1323532368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1317412224"/>
+        <c:axId val="1323532368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1986,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1317400256"/>
+        <c:crossAx val="1323547056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,6 +1998,1462 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[aula-grafico-dinamico.xlsx]TDVendasPerdidas!Tabela dinâmica6</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vendas perdidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anakin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendasPerdidas!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barry Allen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendasPerdidas!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kal-El</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendasPerdidas!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Padmé Amidala</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDVendasPerdidas!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1323545968"/>
+        <c:axId val="1323537808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1323545968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323537808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1323537808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323545968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68951684631718313"/>
+          <c:y val="0.30638027005508794"/>
+          <c:w val="0.26152519798335072"/>
+          <c:h val="0.24657713920170835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1251,6 +3489,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -1258,6 +3497,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1813,24 +4092,529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1850,21 +4634,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>304801</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Ano"/>
+            <xdr:cNvPr id="17" name="Vendedor"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1873,7 +4657,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1888,8 +4672,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="95250" y="876301"/>
-              <a:ext cx="1905000" cy="971550"/>
+              <a:off x="85725" y="1781175"/>
+              <a:ext cx="1885950" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1919,24 +4703,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Gráfico 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Vendedor"/>
+            <xdr:cNvPr id="20" name="Ano"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1945,7 +4761,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1960,8 +4776,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="133350" y="1933576"/>
-              <a:ext cx="1885950" cy="1847850"/>
+              <a:off x="95249" y="800100"/>
+              <a:ext cx="1857375" cy="866775"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1994,23 +4810,26 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TD vendasperdidas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Jai" refreshedDate="45369.626699768516" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[TBVendas].[Ano].[Ano]" caption="Ano" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2016" count="1">
-        <n v="2016"/>
-      </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[TBVendas].[Ano].&amp;[2016]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
-    </cacheField>
-    <cacheField name="[TBVendas].[Mês].[Mês]" caption="Mês" numFmtId="0" level="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jai" refreshedDate="45369.674559259256" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="272">
+  <cacheSource type="worksheet">
+    <worksheetSource name="TBVendas"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Mês" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
         <n v="1"/>
         <n v="2"/>
@@ -2025,140 +4844,2231 @@
         <n v="11"/>
         <n v="12"/>
       </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[TBVendas].[Mês].&amp;[1]"/>
-            <x15:cachedUniqueName index="1" name="[TBVendas].[Mês].&amp;[2]"/>
-            <x15:cachedUniqueName index="2" name="[TBVendas].[Mês].&amp;[3]"/>
-            <x15:cachedUniqueName index="3" name="[TBVendas].[Mês].&amp;[4]"/>
-            <x15:cachedUniqueName index="4" name="[TBVendas].[Mês].&amp;[5]"/>
-            <x15:cachedUniqueName index="5" name="[TBVendas].[Mês].&amp;[6]"/>
-            <x15:cachedUniqueName index="6" name="[TBVendas].[Mês].&amp;[7]"/>
-            <x15:cachedUniqueName index="7" name="[TBVendas].[Mês].&amp;[8]"/>
-            <x15:cachedUniqueName index="8" name="[TBVendas].[Mês].&amp;[9]"/>
-            <x15:cachedUniqueName index="9" name="[TBVendas].[Mês].&amp;[10]"/>
-            <x15:cachedUniqueName index="10" name="[TBVendas].[Mês].&amp;[11]"/>
-            <x15:cachedUniqueName index="11" name="[TBVendas].[Mês].&amp;[12]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
     </cacheField>
-    <cacheField name="[TBVendas].[Vendedor].[Vendedor]" caption="Vendedor" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="8">
-        <s v="Anakin"/>
-        <s v="Barry Allen"/>
-        <s v="Kal-El" u="1"/>
-        <s v="Logan" u="1"/>
-        <s v="Padmé Amidala" u="1"/>
-        <s v="Rachel Roth" u="1"/>
-        <s v="Victor Von Doom" u="1"/>
-        <s v="Wanda Maximoff" u="1"/>
+    <cacheField name="Ano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2018" count="3">
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" numFmtId="0" hierarchy="6" level="32767"/>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Logan"/>
+        <s v="Anakin"/>
+        <s v="Victor Von Doom"/>
+        <s v="Kal-El"/>
+        <s v="Barry Allen"/>
+        <s v="Wanda Maximoff"/>
+        <s v="Rachel Roth"/>
+        <s v="Padmé Amidala"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Clientes visitados" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="195"/>
+    </cacheField>
+    <cacheField name="Negócios Fechados" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Valor Vendido" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3056" maxValue="22465"/>
+    </cacheField>
+    <cacheField name="Vendas Perdidas" numFmtId="0" formula="'Clientes visitados' -'Negócios Fechados'" databaseField="0"/>
   </cacheFields>
-  <cacheHierarchies count="9">
-    <cacheHierarchy uniqueName="[TBVendas].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[TBVendas].[Mês].[All]" allUniqueName="[TBVendas].[Mês].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[TBVendas].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[TBVendas].[Ano].[All]" allUniqueName="[TBVendas].[Ano].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[TBVendas].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[TBVendas].[Vendedor].[All]" allUniqueName="[TBVendas].[Vendedor].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[TBVendas].[Clientes visitados]" caption="Clientes visitados" attribute="1" defaultMemberUniqueName="[TBVendas].[Clientes visitados].[All]" allUniqueName="[TBVendas].[Clientes visitados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Negócios Fechados]" caption="Negócios Fechados" attribute="1" defaultMemberUniqueName="[TBVendas].[Negócios Fechados].[All]" allUniqueName="[TBVendas].[Negócios Fechados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Valor Vendido]" caption="Valor Vendido" attribute="1" defaultMemberUniqueName="[TBVendas].[Valor Vendido].[All]" allUniqueName="[TBVendas].[Valor Vendido].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" measure="1" displayFolder="" measureGroup="TBVendas" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count TBVendas]" caption="__XL_Count TBVendas" measure="1" displayFolder="" measureGroup="TBVendas" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="TBVendas" uniqueName="[TBVendas]" caption="TBVendas"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="TBVendas" caption="TBVendas"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+      <x14:pivotCacheDefinition pivotCacheId="9"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Jai" refreshedDate="45369.626318865739" backgroundQuery="1" createdVersion="3" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="0"/>
-  <cacheHierarchies count="9">
-    <cacheHierarchy uniqueName="[TBVendas].[Mês]" caption="Mês" attribute="1" defaultMemberUniqueName="[TBVendas].[Mês].[All]" allUniqueName="[TBVendas].[Mês].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Ano]" caption="Ano" attribute="1" defaultMemberUniqueName="[TBVendas].[Ano].[All]" allUniqueName="[TBVendas].[Ano].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[TBVendas].[Vendedor].[All]" allUniqueName="[TBVendas].[Vendedor].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Clientes visitados]" caption="Clientes visitados" attribute="1" defaultMemberUniqueName="[TBVendas].[Clientes visitados].[All]" allUniqueName="[TBVendas].[Clientes visitados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Negócios Fechados]" caption="Negócios Fechados" attribute="1" defaultMemberUniqueName="[TBVendas].[Negócios Fechados].[All]" allUniqueName="[TBVendas].[Negócios Fechados].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[TBVendas].[Valor Vendido]" caption="Valor Vendido" attribute="1" defaultMemberUniqueName="[TBVendas].[Valor Vendido].[All]" allUniqueName="[TBVendas].[Valor Vendido].[All]" dimensionUniqueName="[TBVendas]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Soma de Valor Vendido]" caption="Soma de Valor Vendido" measure="1" displayFolder="" measureGroup="TBVendas" count="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count TBVendas]" caption="__XL_Count TBVendas" measure="1" displayFolder="" measureGroup="TBVendas" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="272">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="7625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="59"/>
+    <n v="16020"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="87"/>
+    <n v="77"/>
+    <n v="9859"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="52"/>
+    <n v="33"/>
+    <n v="10155"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="76"/>
+    <n v="51"/>
+    <n v="21591"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="156"/>
+    <n v="100"/>
+    <n v="11574"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="79"/>
+    <n v="40"/>
+    <n v="11242"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="95"/>
+    <n v="88"/>
+    <n v="12943"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="36"/>
+    <n v="3056"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="96"/>
+    <n v="50"/>
+    <n v="12624"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="88"/>
+    <n v="75"/>
+    <n v="22011"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="104"/>
+    <n v="71"/>
+    <n v="12652"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="154"/>
+    <n v="78"/>
+    <n v="21216"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="96"/>
+    <n v="56"/>
+    <n v="11934"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="63"/>
+    <n v="49"/>
+    <n v="16645"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="81"/>
+    <n v="45"/>
+    <n v="15306"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49"/>
+    <n v="42"/>
+    <n v="5119"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="51"/>
+    <n v="15883"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="32"/>
+    <n v="10246"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="46"/>
+    <n v="25"/>
+    <n v="21099"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="44"/>
+    <n v="14038"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="50"/>
+    <n v="38"/>
+    <n v="12475"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="77"/>
+    <n v="72"/>
+    <n v="14057"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="89"/>
+    <n v="89"/>
+    <n v="17044"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="4008"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="38"/>
+    <n v="6436"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="32"/>
+    <n v="24"/>
+    <n v="8064"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="53"/>
+    <n v="14398"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="173"/>
+    <n v="93"/>
+    <n v="10816"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="105"/>
+    <n v="86"/>
+    <n v="18868"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="106"/>
+    <n v="68"/>
+    <n v="14416"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="127"/>
+    <n v="92"/>
+    <n v="12347"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="15"/>
+    <n v="4185"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="45"/>
+    <n v="21220"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="69"/>
+    <n v="36"/>
+    <n v="20414"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="150"/>
+    <n v="97"/>
+    <n v="14484"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="162"/>
+    <n v="84"/>
+    <n v="7302"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="63"/>
+    <n v="52"/>
+    <n v="22198"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="111"/>
+    <n v="65"/>
+    <n v="20710"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="139"/>
+    <n v="76"/>
+    <n v="7682"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="4255"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="72"/>
+    <n v="21707"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="135"/>
+    <n v="68"/>
+    <n v="8922"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="141"/>
+    <n v="81"/>
+    <n v="13535"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="184"/>
+    <n v="93"/>
+    <n v="12927"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="56"/>
+    <n v="28"/>
+    <n v="10496"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="93"/>
+    <n v="13361"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="30"/>
+    <n v="25"/>
+    <n v="16429"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="36"/>
+    <n v="7996"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="67"/>
+    <n v="9788"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="77"/>
+    <n v="62"/>
+    <n v="11003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="21"/>
+    <n v="20"/>
+    <n v="17126"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="54"/>
+    <n v="53"/>
+    <n v="15731"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="123"/>
+    <n v="68"/>
+    <n v="11359"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="64"/>
+    <n v="42"/>
+    <n v="6696"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="118"/>
+    <n v="80"/>
+    <n v="5218"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="28"/>
+    <n v="3974"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="5681"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="142"/>
+    <n v="90"/>
+    <n v="18208"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="176"/>
+    <n v="100"/>
+    <n v="5062"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="158"/>
+    <n v="84"/>
+    <n v="21601"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="47"/>
+    <n v="24"/>
+    <n v="6002"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="68"/>
+    <n v="52"/>
+    <n v="18688"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="88"/>
+    <n v="52"/>
+    <n v="20899"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="25"/>
+    <n v="5546"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="35"/>
+    <n v="15541"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="195"/>
+    <n v="99"/>
+    <n v="13501"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="23"/>
+    <n v="20530"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="127"/>
+    <n v="96"/>
+    <n v="19284"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="137"/>
+    <n v="98"/>
+    <n v="9201"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="122"/>
+    <n v="90"/>
+    <n v="11181"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="125"/>
+    <n v="84"/>
+    <n v="13333"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="30"/>
+    <n v="9690"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="26"/>
+    <n v="11731"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="107"/>
+    <n v="91"/>
+    <n v="13479"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="44"/>
+    <n v="5329"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="140"/>
+    <n v="74"/>
+    <n v="11709"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="51"/>
+    <n v="30"/>
+    <n v="11224"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="65"/>
+    <n v="53"/>
+    <n v="19279"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="93"/>
+    <n v="53"/>
+    <n v="12648"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="45"/>
+    <n v="9928"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="57"/>
+    <n v="19349"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="18923"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="168"/>
+    <n v="92"/>
+    <n v="6299"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="10557"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="117"/>
+    <n v="60"/>
+    <n v="14870"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="52"/>
+    <n v="28"/>
+    <n v="17427"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="107"/>
+    <n v="74"/>
+    <n v="11507"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="47"/>
+    <n v="8095"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="62"/>
+    <n v="20795"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="61"/>
+    <n v="44"/>
+    <n v="12451"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="42"/>
+    <n v="28"/>
+    <n v="7217"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="95"/>
+    <n v="66"/>
+    <n v="12383"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="92"/>
+    <n v="61"/>
+    <n v="17560"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="14937"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="149"/>
+    <n v="83"/>
+    <n v="20988"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="22"/>
+    <n v="3223"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="49"/>
+    <n v="18787"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="108"/>
+    <n v="90"/>
+    <n v="7980"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="72"/>
+    <n v="60"/>
+    <n v="15608"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="35"/>
+    <n v="16423"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="13084"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="47"/>
+    <n v="30"/>
+    <n v="20171"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="65"/>
+    <n v="20751"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="4854"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="49"/>
+    <n v="46"/>
+    <n v="8269"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="154"/>
+    <n v="82"/>
+    <n v="11422"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="76"/>
+    <n v="45"/>
+    <n v="11150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="47"/>
+    <n v="7287"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="111"/>
+    <n v="56"/>
+    <n v="16370"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="57"/>
+    <n v="21831"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="83"/>
+    <n v="59"/>
+    <n v="8496"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="28"/>
+    <n v="6537"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="35"/>
+    <n v="10107"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55"/>
+    <n v="41"/>
+    <n v="19932"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="70"/>
+    <n v="51"/>
+    <n v="10740"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="150"/>
+    <n v="82"/>
+    <n v="6505"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="39"/>
+    <n v="26"/>
+    <n v="9597"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="58"/>
+    <n v="54"/>
+    <n v="17349"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="81"/>
+    <n v="53"/>
+    <n v="11553"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="26"/>
+    <n v="7362"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="51"/>
+    <n v="45"/>
+    <n v="8624"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="70"/>
+    <n v="47"/>
+    <n v="13490"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="97"/>
+    <n v="68"/>
+    <n v="8901"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="106"/>
+    <n v="62"/>
+    <n v="18942"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="66"/>
+    <n v="41"/>
+    <n v="6528"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="161"/>
+    <n v="84"/>
+    <n v="17364"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="147"/>
+    <n v="96"/>
+    <n v="21582"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="15"/>
+    <n v="4636"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="58"/>
+    <n v="48"/>
+    <n v="5368"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="40"/>
+    <n v="36"/>
+    <n v="8549"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="142"/>
+    <n v="81"/>
+    <n v="13610"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="94"/>
+    <n v="65"/>
+    <n v="21628"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="31"/>
+    <n v="23"/>
+    <n v="17826"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="136"/>
+    <n v="71"/>
+    <n v="19424"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="159"/>
+    <n v="88"/>
+    <n v="16101"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="7705"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="29"/>
+    <n v="17984"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="45"/>
+    <n v="13295"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="55"/>
+    <n v="35"/>
+    <n v="20474"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="78"/>
+    <n v="60"/>
+    <n v="6723"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="62"/>
+    <n v="40"/>
+    <n v="20358"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="66"/>
+    <n v="47"/>
+    <n v="5694"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="79"/>
+    <n v="68"/>
+    <n v="11976"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="12"/>
+    <n v="9793"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="118"/>
+    <n v="79"/>
+    <n v="22235"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="15149"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="54"/>
+    <n v="9126"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="98"/>
+    <n v="77"/>
+    <n v="8860"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="32"/>
+    <n v="27"/>
+    <n v="13734"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="107"/>
+    <n v="57"/>
+    <n v="14394"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="185"/>
+    <n v="100"/>
+    <n v="14618"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="3987"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="42"/>
+    <n v="22411"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="55"/>
+    <n v="21611"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="79"/>
+    <n v="40"/>
+    <n v="14770"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="69"/>
+    <n v="13335"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="133"/>
+    <n v="69"/>
+    <n v="18317"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="91"/>
+    <n v="70"/>
+    <n v="7634"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="133"/>
+    <n v="88"/>
+    <n v="12561"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="25"/>
+    <n v="6926"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="31"/>
+    <n v="15017"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="18170"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="45"/>
+    <n v="17633"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="75"/>
+    <n v="58"/>
+    <n v="18747"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="149"/>
+    <n v="98"/>
+    <n v="16788"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="159"/>
+    <n v="91"/>
+    <n v="19057"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="126"/>
+    <n v="94"/>
+    <n v="14183"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="47"/>
+    <n v="7951"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="67"/>
+    <n v="13231"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="128"/>
+    <n v="82"/>
+    <n v="16437"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="78"/>
+    <n v="60"/>
+    <n v="5253"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="90"/>
+    <n v="68"/>
+    <n v="15927"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="118"/>
+    <n v="78"/>
+    <n v="12954"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="132"/>
+    <n v="75"/>
+    <n v="9682"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="105"/>
+    <n v="84"/>
+    <n v="8114"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="44"/>
+    <n v="4864"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="31"/>
+    <n v="15963"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="67"/>
+    <n v="36"/>
+    <n v="14626"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="138"/>
+    <n v="72"/>
+    <n v="14528"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="102"/>
+    <n v="52"/>
+    <n v="22086"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="59"/>
+    <n v="5059"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="190"/>
+    <n v="100"/>
+    <n v="10293"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="70"/>
+    <n v="48"/>
+    <n v="9564"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="44"/>
+    <n v="4938"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="35"/>
+    <n v="17460"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="149"/>
+    <n v="93"/>
+    <n v="14684"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="141"/>
+    <n v="78"/>
+    <n v="6100"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="82"/>
+    <n v="43"/>
+    <n v="21753"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="46"/>
+    <n v="23"/>
+    <n v="19840"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="18180"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="121"/>
+    <n v="90"/>
+    <n v="18174"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="42"/>
+    <n v="9400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="115"/>
+    <n v="63"/>
+    <n v="18081"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="78"/>
+    <n v="43"/>
+    <n v="13175"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="137"/>
+    <n v="70"/>
+    <n v="19349"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="135"/>
+    <n v="98"/>
+    <n v="17241"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="76"/>
+    <n v="43"/>
+    <n v="12436"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="64"/>
+    <n v="43"/>
+    <n v="8244"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="55"/>
+    <n v="42"/>
+    <n v="13249"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="26"/>
+    <n v="7431"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="35"/>
+    <n v="8206"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="91"/>
+    <n v="66"/>
+    <n v="12578"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="63"/>
+    <n v="32"/>
+    <n v="16618"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="29"/>
+    <n v="20903"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="190"/>
+    <n v="98"/>
+    <n v="14852"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="59"/>
+    <n v="35"/>
+    <n v="19738"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="113"/>
+    <n v="78"/>
+    <n v="8290"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="34"/>
+    <n v="6096"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="127"/>
+    <n v="69"/>
+    <n v="8831"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="126"/>
+    <n v="63"/>
+    <n v="15633"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="138"/>
+    <n v="95"/>
+    <n v="7983"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="68"/>
+    <n v="56"/>
+    <n v="12595"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="48"/>
+    <n v="42"/>
+    <n v="13423"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="145"/>
+    <n v="89"/>
+    <n v="8993"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="46"/>
+    <n v="14124"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="21"/>
+    <n v="7009"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="56"/>
+    <n v="5787"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="73"/>
+    <n v="65"/>
+    <n v="11999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="95"/>
+    <n v="91"/>
+    <n v="8288"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="73"/>
+    <n v="53"/>
+    <n v="19476"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="50"/>
+    <n v="40"/>
+    <n v="6704"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="144"/>
+    <n v="94"/>
+    <n v="14045"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="114"/>
+    <n v="71"/>
+    <n v="22274"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="28"/>
+    <n v="7957"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="33"/>
+    <n v="9103"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="74"/>
+    <n v="63"/>
+    <n v="14429"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="153"/>
+    <n v="92"/>
+    <n v="17913"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="121"/>
+    <n v="67"/>
+    <n v="18196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="54"/>
+    <n v="27"/>
+    <n v="6384"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="102"/>
+    <n v="74"/>
+    <n v="12763"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="58"/>
+    <n v="48"/>
+    <n v="5283"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="33"/>
+    <n v="8193"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="44"/>
+    <n v="21413"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="46"/>
+    <n v="15912"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="65"/>
+    <n v="63"/>
+    <n v="17982"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="116"/>
+    <n v="66"/>
+    <n v="16415"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="74"/>
+    <n v="47"/>
+    <n v="19679"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="76"/>
+    <n v="72"/>
+    <n v="19236"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="52"/>
+    <n v="36"/>
+    <n v="7050"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="25"/>
+    <n v="7318"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="54"/>
+    <n v="33"/>
+    <n v="10549"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="140"/>
+    <n v="87"/>
+    <n v="9208"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="39"/>
+    <n v="10253"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="117"/>
+    <n v="78"/>
+    <n v="10748"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="102"/>
+    <n v="77"/>
+    <n v="15500"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="88"/>
+    <n v="58"/>
+    <n v="9540"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="83"/>
+    <n v="66"/>
+    <n v="5501"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="31"/>
+    <n v="9751"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="74"/>
+    <n v="12021"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="90"/>
+    <n v="19380"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="58"/>
+    <n v="30"/>
+    <n v="11396"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="49"/>
+    <n v="25"/>
+    <n v="9034"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="139"/>
+    <n v="91"/>
+    <n v="20533"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="87"/>
+    <n v="46"/>
+    <n v="16885"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="92"/>
+    <n v="58"/>
+    <n v="20953"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="45"/>
+    <n v="4147"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="53"/>
+    <n v="17016"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="61"/>
+    <n v="60"/>
+    <n v="5514"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="38"/>
+    <n v="35"/>
+    <n v="19416"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="41"/>
+    <n v="10959"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="78"/>
+    <n v="69"/>
+    <n v="17631"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="79"/>
+    <n v="67"/>
+    <n v="12213"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="101"/>
+    <n v="68"/>
+    <n v="19882"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="40"/>
+    <n v="6871"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="54"/>
+    <n v="13900"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="92"/>
+    <n v="18385"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="93"/>
+    <n v="55"/>
+    <n v="19890"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="84"/>
+    <n v="78"/>
+    <n v="6990"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="169"/>
+    <n v="96"/>
+    <n v="15367"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="187"/>
+    <n v="95"/>
+    <n v="21093"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="82"/>
+    <n v="82"/>
+    <n v="22465"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -2175,28 +7085,78 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="9">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="0"/>
+        <item x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="1"/>
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="27">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i r="1">
       <x/>
@@ -2241,7 +7201,244 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor Vendido" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="2" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica6" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="0"/>
+        <item x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
     <i>
       <x/>
     </i>
@@ -2251,11 +7448,31 @@
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Valor Vendido" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Vendas Perdidas" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="16">
+  <chartFormats count="24">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2341,6 +7558,102 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2449,102 +7762,60 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="9">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="1"/>
-    <rowHierarchyUsage hierarchyUsage="0"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="2"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_aula-grafico-dinamico.xlsx!TBVendas">
-        <x15:activeTabTopLevelEntity name="[TBVendas]"/>
-      </x15:pivotTableUISettings>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano" sourceName="[TBVendas].[Ano]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="Vendedor">
   <pivotTables>
-    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="11" name="Tabela dinâmica5"/>
+    <pivotTable tabId="12" name="Tabela dinâmica6"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="1">
-      <levels count="2">
-        <level uniqueName="[TBVendas].[Ano].[(All)]" sourceCaption="(All)" count="0"/>
-        <level uniqueName="[TBVendas].[Ano].[Ano]" sourceCaption="Ano" count="3">
-          <ranges>
-            <range startItem="0">
-              <i n="[TBVendas].[Ano].&amp;[2016]" c="2016"/>
-              <i n="[TBVendas].[Ano].&amp;[2017]" c="2017"/>
-              <i n="[TBVendas].[Ano].&amp;[2018]" c="2018"/>
-            </range>
-          </ranges>
-        </level>
-      </levels>
-      <selections count="1">
-        <selection n="[TBVendas].[Ano].&amp;[2016]"/>
-      </selections>
-    </olap>
+    <tabular pivotCacheId="9">
+      <items count="8">
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0"/>
+        <i x="7" s="1"/>
+        <i x="6"/>
+        <i x="2"/>
+        <i x="5"/>
+      </items>
+    </tabular>
   </data>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="[TBVendas].[Vendedor]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Ano" sourceName="Ano">
   <pivotTables>
-    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="11" name="Tabela dinâmica5"/>
+    <pivotTable tabId="12" name="Tabela dinâmica6"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="1">
-      <levels count="2">
-        <level uniqueName="[TBVendas].[Vendedor].[(All)]" sourceCaption="(All)" count="0"/>
-        <level uniqueName="[TBVendas].[Vendedor].[Vendedor]" sourceCaption="Vendedor" count="8">
-          <ranges>
-            <range startItem="0">
-              <i n="[TBVendas].[Vendedor].&amp;[Anakin]" c="Anakin"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Barry Allen]" c="Barry Allen"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Kal-El]" c="Kal-El"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Logan]" c="Logan"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Padmé Amidala]" c="Padmé Amidala"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Rachel Roth]" c="Rachel Roth"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Victor Von Doom]" c="Victor Von Doom"/>
-              <i n="[TBVendas].[Vendedor].&amp;[Wanda Maximoff]" c="Wanda Maximoff"/>
-            </range>
-          </ranges>
-        </level>
-      </levels>
-      <selections count="2">
-        <selection n="[TBVendas].[Vendedor].&amp;[Anakin]"/>
-        <selection n="[TBVendas].[Vendedor].&amp;[Barry Allen]"/>
-      </selections>
-    </olap>
+    <tabular pivotCacheId="9">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+      </items>
+    </tabular>
   </data>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Ano" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" level="1" style="SlicerStyleLight6" rowHeight="241300"/>
-  <slicer name="Vendedor" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" level="1" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Vendedor" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Ano" cache="SegmentaçãodeDados_Ano" caption="Ano" columnCount="3" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -2860,10 +8131,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <v>176775</v>
+      </c>
+      <c r="C5" s="8">
+        <v>179155</v>
+      </c>
+      <c r="D5" s="8">
+        <v>147886</v>
+      </c>
+      <c r="E5" s="8">
+        <v>166344</v>
+      </c>
+      <c r="F5" s="8">
+        <v>670160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>16020</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21591</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10155</v>
+      </c>
+      <c r="E6" s="8">
+        <v>12943</v>
+      </c>
+      <c r="F6" s="8">
+        <v>60709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12624</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21216</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12652</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15306</v>
+      </c>
+      <c r="F7" s="8">
+        <v>61798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15883</v>
+      </c>
+      <c r="C8" s="8">
+        <v>14038</v>
+      </c>
+      <c r="D8" s="8">
+        <v>21099</v>
+      </c>
+      <c r="E8" s="8">
+        <v>17044</v>
+      </c>
+      <c r="F8" s="8">
+        <v>68064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6436</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10816</v>
+      </c>
+      <c r="D9" s="8">
+        <v>14398</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12347</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>21220</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14484</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7682</v>
+      </c>
+      <c r="F10" s="8">
+        <v>50688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>21707</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12927</v>
+      </c>
+      <c r="D11" s="8">
+        <v>13535</v>
+      </c>
+      <c r="E11" s="8">
+        <v>16429</v>
+      </c>
+      <c r="F11" s="8">
+        <v>64598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9788</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15731</v>
+      </c>
+      <c r="D12" s="8">
+        <v>17126</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5218</v>
+      </c>
+      <c r="F12" s="8">
+        <v>47863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5681</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21601</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5062</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20899</v>
+      </c>
+      <c r="F13" s="8">
+        <v>53243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15541</v>
+      </c>
+      <c r="C14" s="8">
+        <v>19284</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20530</v>
+      </c>
+      <c r="E14" s="8">
+        <v>13333</v>
+      </c>
+      <c r="F14" s="8">
+        <v>68688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>11731</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11709</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5329</v>
+      </c>
+      <c r="E15" s="8">
+        <v>12648</v>
+      </c>
+      <c r="F15" s="8">
+        <v>41417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19349</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10557</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6299</v>
+      </c>
+      <c r="E16" s="8">
+        <v>11507</v>
+      </c>
+      <c r="F16" s="8">
+        <v>47712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20795</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12383</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7217</v>
+      </c>
+      <c r="E17" s="8">
+        <v>20988</v>
+      </c>
+      <c r="F17" s="8">
+        <v>61383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="8">
+        <v>175456</v>
+      </c>
+      <c r="C18" s="8">
+        <v>178216</v>
+      </c>
+      <c r="D18" s="8">
+        <v>147893</v>
+      </c>
+      <c r="E18" s="8">
+        <v>167673</v>
+      </c>
+      <c r="F18" s="8">
+        <v>669238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18787</v>
+      </c>
+      <c r="C19" s="8">
+        <v>16423</v>
+      </c>
+      <c r="D19" s="8">
+        <v>15608</v>
+      </c>
+      <c r="E19" s="8">
+        <v>20751</v>
+      </c>
+      <c r="F19" s="8">
+        <v>71569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8269</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7287</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11150</v>
+      </c>
+      <c r="E20" s="8">
+        <v>8496</v>
+      </c>
+      <c r="F20" s="8">
+        <v>35202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10107</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6505</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10740</v>
+      </c>
+      <c r="E21" s="8">
+        <v>11553</v>
+      </c>
+      <c r="F21" s="8">
+        <v>38905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8624</v>
+      </c>
+      <c r="C22" s="8">
+        <v>18942</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8901</v>
+      </c>
+      <c r="E22" s="8">
+        <v>21582</v>
+      </c>
+      <c r="F22" s="8">
+        <v>58049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5368</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21628</v>
+      </c>
+      <c r="D23" s="8">
+        <v>13610</v>
+      </c>
+      <c r="E23" s="8">
+        <v>16101</v>
+      </c>
+      <c r="F23" s="8">
+        <v>56707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17984</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6723</v>
+      </c>
+      <c r="D24" s="8">
+        <v>20474</v>
+      </c>
+      <c r="E24" s="8">
+        <v>11976</v>
+      </c>
+      <c r="F24" s="8">
+        <v>57157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>22235</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8860</v>
+      </c>
+      <c r="D25" s="8">
+        <v>9126</v>
+      </c>
+      <c r="E25" s="8">
+        <v>14618</v>
+      </c>
+      <c r="F25" s="8">
+        <v>54839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22411</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13335</v>
+      </c>
+      <c r="D26" s="8">
+        <v>14770</v>
+      </c>
+      <c r="E26" s="8">
+        <v>12561</v>
+      </c>
+      <c r="F26" s="8">
+        <v>63077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8">
+        <v>15017</v>
+      </c>
+      <c r="C27" s="8">
+        <v>18747</v>
+      </c>
+      <c r="D27" s="8">
+        <v>17633</v>
+      </c>
+      <c r="E27" s="8">
+        <v>14183</v>
+      </c>
+      <c r="F27" s="8">
+        <v>65580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8">
+        <v>13231</v>
+      </c>
+      <c r="C28" s="8">
+        <v>15927</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5253</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8114</v>
+      </c>
+      <c r="F28" s="8">
+        <v>42525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>15963</v>
+      </c>
+      <c r="C29" s="8">
+        <v>22086</v>
+      </c>
+      <c r="D29" s="8">
+        <v>14528</v>
+      </c>
+      <c r="E29" s="8">
+        <v>9564</v>
+      </c>
+      <c r="F29" s="8">
+        <v>62141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8">
+        <v>17460</v>
+      </c>
+      <c r="C30" s="8">
+        <v>21753</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6100</v>
+      </c>
+      <c r="E30" s="8">
+        <v>18174</v>
+      </c>
+      <c r="F30" s="8">
+        <v>63487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8">
+        <v>352231</v>
+      </c>
+      <c r="C31" s="8">
+        <v>357371</v>
+      </c>
+      <c r="D31" s="8">
+        <v>295779</v>
+      </c>
+      <c r="E31" s="8">
+        <v>334017</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1339398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="12">
+        <v>288</v>
+      </c>
+      <c r="C5" s="12">
+        <v>558</v>
+      </c>
+      <c r="D5" s="12">
+        <v>411</v>
+      </c>
+      <c r="E5" s="12">
+        <v>400</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="12">
+        <v>206</v>
+      </c>
+      <c r="C6" s="12">
+        <v>374</v>
+      </c>
+      <c r="D6" s="12">
+        <v>376</v>
+      </c>
+      <c r="E6" s="12">
+        <v>429</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12">
+        <v>494</v>
+      </c>
+      <c r="C7" s="12">
+        <v>932</v>
+      </c>
+      <c r="D7" s="12">
+        <v>787</v>
+      </c>
+      <c r="E7" s="12">
+        <v>829</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,256 +14322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8">
-        <v>176775</v>
-      </c>
-      <c r="C5" s="8">
-        <v>179155</v>
-      </c>
-      <c r="D5" s="8">
-        <v>355930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>16020</v>
-      </c>
-      <c r="C6" s="8">
-        <v>21591</v>
-      </c>
-      <c r="D6" s="8">
-        <v>37611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12624</v>
-      </c>
-      <c r="C7" s="8">
-        <v>21216</v>
-      </c>
-      <c r="D7" s="8">
-        <v>33840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>15883</v>
-      </c>
-      <c r="C8" s="8">
-        <v>14038</v>
-      </c>
-      <c r="D8" s="8">
-        <v>29921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>6436</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10816</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8">
-        <v>21220</v>
-      </c>
-      <c r="C10" s="8">
-        <v>7302</v>
-      </c>
-      <c r="D10" s="8">
-        <v>28522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
-        <v>21707</v>
-      </c>
-      <c r="C11" s="8">
-        <v>12927</v>
-      </c>
-      <c r="D11" s="8">
-        <v>34634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
-        <v>9788</v>
-      </c>
-      <c r="C12" s="8">
-        <v>15731</v>
-      </c>
-      <c r="D12" s="8">
-        <v>25519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5681</v>
-      </c>
-      <c r="C13" s="8">
-        <v>21601</v>
-      </c>
-      <c r="D13" s="8">
-        <v>27282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8">
-        <v>15541</v>
-      </c>
-      <c r="C14" s="8">
-        <v>19284</v>
-      </c>
-      <c r="D14" s="8">
-        <v>34825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8">
-        <v>11731</v>
-      </c>
-      <c r="C15" s="8">
-        <v>11709</v>
-      </c>
-      <c r="D15" s="8">
-        <v>23440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8">
-        <v>19349</v>
-      </c>
-      <c r="C16" s="8">
-        <v>10557</v>
-      </c>
-      <c r="D16" s="8">
-        <v>29906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8">
-        <v>20795</v>
-      </c>
-      <c r="C17" s="8">
-        <v>12383</v>
-      </c>
-      <c r="D17" s="8">
-        <v>33178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8">
-        <v>176775</v>
-      </c>
-      <c r="C18" s="8">
-        <v>179155</v>
-      </c>
-      <c r="D18" s="8">
-        <v>355930</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8637,6 +14372,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>

--- a/módulo 10/aula-grafico-dinamico.xlsx
+++ b/módulo 10/aula-grafico-dinamico.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TDVendas" sheetId="11" r:id="rId1"/>
     <sheet name="TDVendasPerdidas" sheetId="12" r:id="rId2"/>
-    <sheet name="BaseDeDados" sheetId="2" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
+    <sheet name="TDMédiaVendida" sheetId="13" r:id="rId3"/>
+    <sheet name="BaseDeDados" sheetId="2" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_TDvendasperdidasB5J71" hidden="1">'[1]TD vendasperdidas'!$B$5:$J$7</definedName>
@@ -27,13 +28,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="155" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="25">
   <si>
     <t>Mês</t>
   </si>
@@ -150,6 +151,9 @@
   <si>
     <t>vai em conexões do relatório/seleciona as tabelas dinamicas criadas(Devem ser da mesma base de dados)</t>
   </si>
+  <si>
+    <t>Média das vendas</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +164,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +189,13 @@
     </font>
     <font>
       <b/>
+      <sz val="28"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="28"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
@@ -226,7 +237,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -248,10 +259,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -727,6 +744,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -742,6 +762,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -757,6 +780,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -772,6 +798,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -787,6 +816,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -802,6 +834,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -817,6 +852,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -832,6 +870,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -847,6 +888,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -862,6 +906,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -877,6 +924,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -892,6 +942,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -907,6 +960,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -922,6 +978,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -937,6 +996,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -952,6 +1014,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1069,6 +1134,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1084,7 +1164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Anakin</c:v>
+                  <c:v>Barry Allen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1103,9 +1183,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1179,6 +1259,36 @@
                   <c:pt idx="23">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1187,87 +1297,120 @@
                   <c:pt idx="12">
                     <c:v>2017</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$B$5:$B$31</c:f>
+              <c:f>TDVendas!$B$5:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>16020</c:v>
+                  <c:v>21591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12624</c:v>
+                  <c:v>21216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15883</c:v>
+                  <c:v>14038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6436</c:v>
+                  <c:v>10816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21220</c:v>
+                  <c:v>7302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21707</c:v>
+                  <c:v>12927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9788</c:v>
+                  <c:v>15731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5681</c:v>
+                  <c:v>21601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15541</c:v>
+                  <c:v>19284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11731</c:v>
+                  <c:v>11709</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19349</c:v>
+                  <c:v>10557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20795</c:v>
+                  <c:v>12383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18787</c:v>
+                  <c:v>16423</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8269</c:v>
+                  <c:v>7287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10107</c:v>
+                  <c:v>6505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8624</c:v>
+                  <c:v>18942</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5368</c:v>
+                  <c:v>21628</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17984</c:v>
+                  <c:v>6723</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22235</c:v>
+                  <c:v>8860</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22411</c:v>
+                  <c:v>13335</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15017</c:v>
+                  <c:v>18747</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13231</c:v>
+                  <c:v>15927</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15963</c:v>
+                  <c:v>22086</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17460</c:v>
+                  <c:v>21753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18196</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16415</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9034</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Barry Allen</c:v>
+                  <c:v>Logan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1302,9 +1445,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1378,6 +1521,36 @@
                   <c:pt idx="23">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1386,87 +1559,120 @@
                   <c:pt idx="12">
                     <c:v>2017</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$C$5:$C$31</c:f>
+              <c:f>TDVendas!$C$5:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>21591</c:v>
+                  <c:v>7625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21216</c:v>
+                  <c:v>3056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14038</c:v>
+                  <c:v>5119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10816</c:v>
+                  <c:v>4008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7302</c:v>
+                  <c:v>4185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12927</c:v>
+                  <c:v>4255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15731</c:v>
+                  <c:v>7996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21601</c:v>
+                  <c:v>3974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19284</c:v>
+                  <c:v>5546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11709</c:v>
+                  <c:v>9690</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10557</c:v>
+                  <c:v>9928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12383</c:v>
+                  <c:v>8095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16423</c:v>
+                  <c:v>3223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7287</c:v>
+                  <c:v>4854</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6505</c:v>
+                  <c:v>6537</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18942</c:v>
+                  <c:v>7362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21628</c:v>
+                  <c:v>4636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6723</c:v>
+                  <c:v>7705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8860</c:v>
+                  <c:v>9793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13335</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18747</c:v>
+                  <c:v>6926</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15927</c:v>
+                  <c:v>7951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22086</c:v>
+                  <c:v>4864</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21753</c:v>
+                  <c:v>4938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7431</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8193</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7318</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9751</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kal-El</c:v>
+                  <c:v>Rachel Roth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1501,9 +1707,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1577,6 +1783,36 @@
                   <c:pt idx="23">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1585,87 +1821,120 @@
                   <c:pt idx="12">
                     <c:v>2017</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$D$5:$D$31</c:f>
+              <c:f>TDVendas!$D$5:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>10155</c:v>
+                  <c:v>11242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12652</c:v>
+                  <c:v>16645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21099</c:v>
+                  <c:v>14057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14398</c:v>
+                  <c:v>14416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14484</c:v>
+                  <c:v>20710</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13535</c:v>
+                  <c:v>13361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17126</c:v>
+                  <c:v>6696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5062</c:v>
+                  <c:v>18688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20530</c:v>
+                  <c:v>11181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5329</c:v>
+                  <c:v>19279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6299</c:v>
+                  <c:v>17427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7217</c:v>
+                  <c:v>14937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15608</c:v>
+                  <c:v>20171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11150</c:v>
+                  <c:v>21831</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10740</c:v>
+                  <c:v>17349</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8901</c:v>
+                  <c:v>17364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13610</c:v>
+                  <c:v>19424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20474</c:v>
+                  <c:v>5694</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9126</c:v>
+                  <c:v>14394</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14770</c:v>
+                  <c:v>7634</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17633</c:v>
+                  <c:v>19057</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5253</c:v>
+                  <c:v>9682</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14528</c:v>
+                  <c:v>10293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6100</c:v>
+                  <c:v>18180</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12763</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16885</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Padmé Amidala</c:v>
+                  <c:v>Victor Von Doom</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1700,9 +1969,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TDVendas!$A$5:$A$31</c:f>
+              <c:f>TDVendas!$A$5:$A$42</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
@@ -1776,6 +2045,36 @@
                   <c:pt idx="23">
                     <c:v>12</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1784,87 +2083,120 @@
                   <c:pt idx="12">
                     <c:v>2017</c:v>
                   </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2018</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendas!$E$5:$E$31</c:f>
+              <c:f>TDVendas!$E$5:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>12943</c:v>
+                  <c:v>9859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15306</c:v>
+                  <c:v>22011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17044</c:v>
+                  <c:v>10246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12347</c:v>
+                  <c:v>8064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7682</c:v>
+                  <c:v>20414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16429</c:v>
+                  <c:v>8922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5218</c:v>
+                  <c:v>11003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20899</c:v>
+                  <c:v>18208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13333</c:v>
+                  <c:v>13501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12648</c:v>
+                  <c:v>13479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11507</c:v>
+                  <c:v>18923</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20988</c:v>
+                  <c:v>12451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20751</c:v>
+                  <c:v>7980</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8496</c:v>
+                  <c:v>11422</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11553</c:v>
+                  <c:v>19932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21582</c:v>
+                  <c:v>13490</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16101</c:v>
+                  <c:v>8549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11976</c:v>
+                  <c:v>13295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14618</c:v>
+                  <c:v>15149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12561</c:v>
+                  <c:v>21611</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14183</c:v>
+                  <c:v>18170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8114</c:v>
+                  <c:v>16437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9564</c:v>
+                  <c:v>14626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18174</c:v>
+                  <c:v>14684</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12578</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14429</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9208</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19380</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,11 +2212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1323547056"/>
-        <c:axId val="1323532368"/>
+        <c:axId val="247627792"/>
+        <c:axId val="247634320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1323547056"/>
+        <c:axId val="247627792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +2259,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323532368"/>
+        <c:crossAx val="247634320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1323532368"/>
+        <c:axId val="247634320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2318,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323547056"/>
+        <c:crossAx val="247627792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,12 +2339,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2856,7 +3183,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Anakin</c:v>
+                  <c:v>Barry Allen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2932,29 +3259,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:f>TDVendasPerdidas!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendasPerdidas!$B$5:$B$7</c:f>
+              <c:f>TDVendasPerdidas!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>288</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,7 +3302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Barry Allen</c:v>
+                  <c:v>Logan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3045,29 +3378,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:f>TDVendasPerdidas!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendasPerdidas!$C$5:$C$7</c:f>
+              <c:f>TDVendasPerdidas!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>558</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>374</c:v>
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,7 +3421,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kal-El</c:v>
+                  <c:v>Rachel Roth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3158,29 +3497,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:f>TDVendasPerdidas!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendasPerdidas!$D$5:$D$7</c:f>
+              <c:f>TDVendasPerdidas!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>411</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>376</c:v>
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3195,7 +3540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Padmé Amidala</c:v>
+                  <c:v>Victor Von Doom</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3271,29 +3616,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TDVendasPerdidas!$A$5:$A$7</c:f>
+              <c:f>TDVendasPerdidas!$A$5:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TDVendasPerdidas!$E$5:$E$7</c:f>
+              <c:f>TDVendasPerdidas!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429</c:v>
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,11 +3660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1323545968"/>
-        <c:axId val="1323537808"/>
+        <c:axId val="247628880"/>
+        <c:axId val="247631600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1323545968"/>
+        <c:axId val="247628880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323537808"/>
+        <c:crossAx val="247631600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3364,7 +3715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1323537808"/>
+        <c:axId val="247631600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3752,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323545968"/>
+        <c:crossAx val="247628880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3421,7 +3772,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.68951684631718313"/>
           <c:y val="0.30638027005508794"/>
-          <c:w val="0.26152519798335072"/>
+          <c:w val="0.29614701014191325"/>
           <c:h val="0.24657713920170835"/>
         </c:manualLayout>
       </c:layout>
@@ -3496,6 +3847,858 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[aula-grafico-dinamico.xlsx]TDMédiaVendida!Tabela dinâmica1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valor médio de vendas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barry Allen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDMédiaVendida!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>209.53801169590642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.21169916434539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.21319796954316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDMédiaVendida!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>208.74147727272728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.20364741641336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.22461538461539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rachel Roth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDMédiaVendida!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>262.70441176470587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219.748786407767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.10995542347698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Victor Von Doom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TDMédiaVendida!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TDMédiaVendida!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>225.17654986522911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236.63292847503374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.79703703703703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="457534272"/>
+        <c:axId val="457538080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457534272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457538080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457538080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457534272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3537,6 +4740,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4597,20 +5840,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4644,8 +6390,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Vendedor"/>
@@ -4662,7 +6408,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4711,8 +6457,8 @@
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4748,8 +6494,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Ano"/>
@@ -4766,7 +6512,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4807,6 +6553,224 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019301" y="790576"/>
+          <a:ext cx="3429000" cy="3581399"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo de cantos arredondados 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="752477"/>
+          <a:ext cx="6696075" cy="1685923"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo de cantos arredondados 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="2447927"/>
+          <a:ext cx="6762750" cy="1838323"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4828,7 +6792,7 @@
   <cacheSource type="worksheet">
     <worksheetSource name="TBVendas"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="Mês" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
         <n v="1"/>
@@ -4873,7 +6837,8 @@
     <cacheField name="Valor Vendido" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3056" maxValue="22465"/>
     </cacheField>
-    <cacheField name="Vendas Perdidas" numFmtId="0" formula="'Clientes visitados' -'Negócios Fechados'" databaseField="0"/>
+    <cacheField name="Vendas Perdidas" numFmtId="0" formula="'Clientes visitados'-'Negócios Fechados'" databaseField="0"/>
+    <cacheField name="Média Vendas" numFmtId="0" formula="'Valor Vendido' /'Negócios Fechados'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7065,9 +9030,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:F31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -7089,19 +9054,19 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="9">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="3"/>
-        <item h="1" x="0"/>
-        <item x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="2"/>
         <item h="1" x="5"/>
         <item t="default"/>
       </items>
@@ -7110,12 +9075,13 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="38">
     <i>
       <x/>
     </i>
@@ -7194,6 +9160,39 @@
     <i r="1">
       <x v="11"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -7203,16 +9202,16 @@
   </colFields>
   <colItems count="5">
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -7221,7 +9220,7 @@
   <dataFields count="1">
     <dataField name="Soma de Valor Vendido" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
+  <chartFormats count="16">
     <chartFormat chart="2" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7378,6 +9377,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7389,9 +9400,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica6" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField showAll="0">
       <items count="13">
         <item x="0"/>
@@ -7413,19 +9424,19 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="9">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="4"/>
-        <item x="3"/>
-        <item h="1" x="0"/>
-        <item x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="2"/>
         <item h="1" x="5"/>
         <item t="default"/>
       </items>
@@ -7434,16 +9445,20 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -7454,16 +9469,16 @@
   </colFields>
   <colItems count="5">
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -7771,22 +9786,298 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média das vendas" fld="7" baseField="1" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Vendedor" sourceName="Vendedor">
   <pivotTables>
     <pivotTable tabId="11" name="Tabela dinâmica5"/>
     <pivotTable tabId="12" name="Tabela dinâmica6"/>
+    <pivotTable tabId="13" name="Tabela dinâmica1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="9">
       <items count="8">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="4" s="1"/>
-        <i x="3" s="1"/>
-        <i x="0"/>
-        <i x="7" s="1"/>
-        <i x="6"/>
-        <i x="2"/>
+        <i x="3"/>
+        <i x="0" s="1"/>
+        <i x="7"/>
+        <i x="6" s="1"/>
+        <i x="2" s="1"/>
         <i x="5"/>
       </items>
     </tabular>
@@ -7799,13 +10090,14 @@
   <pivotTables>
     <pivotTable tabId="11" name="Tabela dinâmica5"/>
     <pivotTable tabId="12" name="Tabela dinâmica6"/>
+    <pivotTable tabId="13" name="Tabela dinâmica1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="9">
       <items count="3">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -8131,7 +10423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F31"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -8141,9 +10433,9 @@
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -8163,16 +10455,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -8183,19 +10475,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="8">
-        <v>176775</v>
+        <v>179155</v>
       </c>
       <c r="C5" s="8">
-        <v>179155</v>
+        <v>73477</v>
       </c>
       <c r="D5" s="8">
-        <v>147886</v>
+        <v>178639</v>
       </c>
       <c r="E5" s="8">
-        <v>166344</v>
+        <v>167081</v>
       </c>
       <c r="F5" s="8">
-        <v>670160</v>
+        <v>598352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8203,19 +10495,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>16020</v>
+        <v>21591</v>
       </c>
       <c r="C6" s="8">
-        <v>21591</v>
+        <v>7625</v>
       </c>
       <c r="D6" s="8">
-        <v>10155</v>
+        <v>11242</v>
       </c>
       <c r="E6" s="8">
-        <v>12943</v>
+        <v>9859</v>
       </c>
       <c r="F6" s="8">
-        <v>60709</v>
+        <v>50317</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8223,19 +10515,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="8">
-        <v>12624</v>
+        <v>21216</v>
       </c>
       <c r="C7" s="8">
-        <v>21216</v>
+        <v>3056</v>
       </c>
       <c r="D7" s="8">
-        <v>12652</v>
+        <v>16645</v>
       </c>
       <c r="E7" s="8">
-        <v>15306</v>
+        <v>22011</v>
       </c>
       <c r="F7" s="8">
-        <v>61798</v>
+        <v>62928</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,19 +10535,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="8">
-        <v>15883</v>
+        <v>14038</v>
       </c>
       <c r="C8" s="8">
-        <v>14038</v>
+        <v>5119</v>
       </c>
       <c r="D8" s="8">
-        <v>21099</v>
+        <v>14057</v>
       </c>
       <c r="E8" s="8">
-        <v>17044</v>
+        <v>10246</v>
       </c>
       <c r="F8" s="8">
-        <v>68064</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8263,19 +10555,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>6436</v>
+        <v>10816</v>
       </c>
       <c r="C9" s="8">
-        <v>10816</v>
+        <v>4008</v>
       </c>
       <c r="D9" s="8">
-        <v>14398</v>
+        <v>14416</v>
       </c>
       <c r="E9" s="8">
-        <v>12347</v>
+        <v>8064</v>
       </c>
       <c r="F9" s="8">
-        <v>43997</v>
+        <v>37304</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8283,19 +10575,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="8">
-        <v>21220</v>
+        <v>7302</v>
       </c>
       <c r="C10" s="8">
-        <v>7302</v>
+        <v>4185</v>
       </c>
       <c r="D10" s="8">
-        <v>14484</v>
+        <v>20710</v>
       </c>
       <c r="E10" s="8">
-        <v>7682</v>
+        <v>20414</v>
       </c>
       <c r="F10" s="8">
-        <v>50688</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8303,19 +10595,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="8">
-        <v>21707</v>
+        <v>12927</v>
       </c>
       <c r="C11" s="8">
-        <v>12927</v>
+        <v>4255</v>
       </c>
       <c r="D11" s="8">
-        <v>13535</v>
+        <v>13361</v>
       </c>
       <c r="E11" s="8">
-        <v>16429</v>
+        <v>8922</v>
       </c>
       <c r="F11" s="8">
-        <v>64598</v>
+        <v>39465</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8323,19 +10615,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="8">
-        <v>9788</v>
+        <v>15731</v>
       </c>
       <c r="C12" s="8">
-        <v>15731</v>
+        <v>7996</v>
       </c>
       <c r="D12" s="8">
-        <v>17126</v>
+        <v>6696</v>
       </c>
       <c r="E12" s="8">
-        <v>5218</v>
+        <v>11003</v>
       </c>
       <c r="F12" s="8">
-        <v>47863</v>
+        <v>41426</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,19 +10635,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="8">
-        <v>5681</v>
+        <v>21601</v>
       </c>
       <c r="C13" s="8">
-        <v>21601</v>
+        <v>3974</v>
       </c>
       <c r="D13" s="8">
-        <v>5062</v>
+        <v>18688</v>
       </c>
       <c r="E13" s="8">
-        <v>20899</v>
+        <v>18208</v>
       </c>
       <c r="F13" s="8">
-        <v>53243</v>
+        <v>62471</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8363,19 +10655,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>15541</v>
+        <v>19284</v>
       </c>
       <c r="C14" s="8">
-        <v>19284</v>
+        <v>5546</v>
       </c>
       <c r="D14" s="8">
-        <v>20530</v>
+        <v>11181</v>
       </c>
       <c r="E14" s="8">
-        <v>13333</v>
+        <v>13501</v>
       </c>
       <c r="F14" s="8">
-        <v>68688</v>
+        <v>49512</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8383,19 +10675,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="8">
-        <v>11731</v>
+        <v>11709</v>
       </c>
       <c r="C15" s="8">
-        <v>11709</v>
+        <v>9690</v>
       </c>
       <c r="D15" s="8">
-        <v>5329</v>
+        <v>19279</v>
       </c>
       <c r="E15" s="8">
-        <v>12648</v>
+        <v>13479</v>
       </c>
       <c r="F15" s="8">
-        <v>41417</v>
+        <v>54157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8403,19 +10695,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="8">
-        <v>19349</v>
+        <v>10557</v>
       </c>
       <c r="C16" s="8">
-        <v>10557</v>
+        <v>9928</v>
       </c>
       <c r="D16" s="8">
-        <v>6299</v>
+        <v>17427</v>
       </c>
       <c r="E16" s="8">
-        <v>11507</v>
+        <v>18923</v>
       </c>
       <c r="F16" s="8">
-        <v>47712</v>
+        <v>56835</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,19 +10715,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="8">
-        <v>20795</v>
+        <v>12383</v>
       </c>
       <c r="C17" s="8">
-        <v>12383</v>
+        <v>8095</v>
       </c>
       <c r="D17" s="8">
-        <v>7217</v>
+        <v>14937</v>
       </c>
       <c r="E17" s="8">
-        <v>20988</v>
+        <v>12451</v>
       </c>
       <c r="F17" s="8">
-        <v>61383</v>
+        <v>47866</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8443,19 +10735,19 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8">
-        <v>175456</v>
+        <v>178216</v>
       </c>
       <c r="C18" s="8">
-        <v>178216</v>
+        <v>72776</v>
       </c>
       <c r="D18" s="8">
-        <v>147893</v>
+        <v>181073</v>
       </c>
       <c r="E18" s="8">
-        <v>167673</v>
+        <v>175345</v>
       </c>
       <c r="F18" s="8">
-        <v>669238</v>
+        <v>607410</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,19 +10755,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="8">
-        <v>18787</v>
+        <v>16423</v>
       </c>
       <c r="C19" s="8">
-        <v>16423</v>
+        <v>3223</v>
       </c>
       <c r="D19" s="8">
-        <v>15608</v>
+        <v>20171</v>
       </c>
       <c r="E19" s="8">
-        <v>20751</v>
+        <v>7980</v>
       </c>
       <c r="F19" s="8">
-        <v>71569</v>
+        <v>47797</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8483,19 +10775,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="8">
-        <v>8269</v>
+        <v>7287</v>
       </c>
       <c r="C20" s="8">
-        <v>7287</v>
+        <v>4854</v>
       </c>
       <c r="D20" s="8">
-        <v>11150</v>
+        <v>21831</v>
       </c>
       <c r="E20" s="8">
-        <v>8496</v>
+        <v>11422</v>
       </c>
       <c r="F20" s="8">
-        <v>35202</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8503,19 +10795,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="8">
-        <v>10107</v>
+        <v>6505</v>
       </c>
       <c r="C21" s="8">
-        <v>6505</v>
+        <v>6537</v>
       </c>
       <c r="D21" s="8">
-        <v>10740</v>
+        <v>17349</v>
       </c>
       <c r="E21" s="8">
-        <v>11553</v>
+        <v>19932</v>
       </c>
       <c r="F21" s="8">
-        <v>38905</v>
+        <v>50323</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8523,19 +10815,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="8">
-        <v>8624</v>
+        <v>18942</v>
       </c>
       <c r="C22" s="8">
-        <v>18942</v>
+        <v>7362</v>
       </c>
       <c r="D22" s="8">
-        <v>8901</v>
+        <v>17364</v>
       </c>
       <c r="E22" s="8">
-        <v>21582</v>
+        <v>13490</v>
       </c>
       <c r="F22" s="8">
-        <v>58049</v>
+        <v>57158</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,19 +10835,19 @@
         <v>5</v>
       </c>
       <c r="B23" s="8">
-        <v>5368</v>
+        <v>21628</v>
       </c>
       <c r="C23" s="8">
-        <v>21628</v>
+        <v>4636</v>
       </c>
       <c r="D23" s="8">
-        <v>13610</v>
+        <v>19424</v>
       </c>
       <c r="E23" s="8">
-        <v>16101</v>
+        <v>8549</v>
       </c>
       <c r="F23" s="8">
-        <v>56707</v>
+        <v>54237</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8563,19 +10855,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="8">
-        <v>17984</v>
+        <v>6723</v>
       </c>
       <c r="C24" s="8">
-        <v>6723</v>
+        <v>7705</v>
       </c>
       <c r="D24" s="8">
-        <v>20474</v>
+        <v>5694</v>
       </c>
       <c r="E24" s="8">
-        <v>11976</v>
+        <v>13295</v>
       </c>
       <c r="F24" s="8">
-        <v>57157</v>
+        <v>33417</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8583,19 +10875,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="8">
-        <v>22235</v>
+        <v>8860</v>
       </c>
       <c r="C25" s="8">
-        <v>8860</v>
+        <v>9793</v>
       </c>
       <c r="D25" s="8">
-        <v>9126</v>
+        <v>14394</v>
       </c>
       <c r="E25" s="8">
-        <v>14618</v>
+        <v>15149</v>
       </c>
       <c r="F25" s="8">
-        <v>54839</v>
+        <v>48196</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8603,19 +10895,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="8">
-        <v>22411</v>
+        <v>13335</v>
       </c>
       <c r="C26" s="8">
-        <v>13335</v>
+        <v>3987</v>
       </c>
       <c r="D26" s="8">
-        <v>14770</v>
+        <v>7634</v>
       </c>
       <c r="E26" s="8">
-        <v>12561</v>
+        <v>21611</v>
       </c>
       <c r="F26" s="8">
-        <v>63077</v>
+        <v>46567</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8623,19 +10915,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>15017</v>
+        <v>18747</v>
       </c>
       <c r="C27" s="8">
-        <v>18747</v>
+        <v>6926</v>
       </c>
       <c r="D27" s="8">
-        <v>17633</v>
+        <v>19057</v>
       </c>
       <c r="E27" s="8">
-        <v>14183</v>
+        <v>18170</v>
       </c>
       <c r="F27" s="8">
-        <v>65580</v>
+        <v>62900</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8643,19 +10935,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="8">
-        <v>13231</v>
+        <v>15927</v>
       </c>
       <c r="C28" s="8">
-        <v>15927</v>
+        <v>7951</v>
       </c>
       <c r="D28" s="8">
-        <v>5253</v>
+        <v>9682</v>
       </c>
       <c r="E28" s="8">
-        <v>8114</v>
+        <v>16437</v>
       </c>
       <c r="F28" s="8">
-        <v>42525</v>
+        <v>49997</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8663,19 +10955,19 @@
         <v>11</v>
       </c>
       <c r="B29" s="8">
-        <v>15963</v>
+        <v>22086</v>
       </c>
       <c r="C29" s="8">
-        <v>22086</v>
+        <v>4864</v>
       </c>
       <c r="D29" s="8">
-        <v>14528</v>
+        <v>10293</v>
       </c>
       <c r="E29" s="8">
-        <v>9564</v>
+        <v>14626</v>
       </c>
       <c r="F29" s="8">
-        <v>62141</v>
+        <v>51869</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8683,39 +10975,259 @@
         <v>12</v>
       </c>
       <c r="B30" s="8">
-        <v>17460</v>
+        <v>21753</v>
       </c>
       <c r="C30" s="8">
-        <v>21753</v>
+        <v>4938</v>
       </c>
       <c r="D30" s="8">
-        <v>6100</v>
+        <v>18180</v>
       </c>
       <c r="E30" s="8">
-        <v>18174</v>
+        <v>14684</v>
       </c>
       <c r="F30" s="8">
-        <v>63487</v>
+        <v>59555</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="8">
+        <v>142557</v>
+      </c>
+      <c r="C31" s="8">
+        <v>74173</v>
+      </c>
+      <c r="D31" s="8">
+        <v>142750</v>
+      </c>
+      <c r="E31" s="8">
+        <v>136213</v>
+      </c>
+      <c r="F31" s="8">
+        <v>495693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8">
+        <v>17241</v>
+      </c>
+      <c r="C32" s="8">
+        <v>9400</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8244</v>
+      </c>
+      <c r="E32" s="8">
+        <v>13175</v>
+      </c>
+      <c r="F32" s="8">
+        <v>48060</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20903</v>
+      </c>
+      <c r="C33" s="8">
+        <v>7431</v>
+      </c>
+      <c r="D33" s="8">
+        <v>19738</v>
+      </c>
+      <c r="E33" s="8">
+        <v>12578</v>
+      </c>
+      <c r="F33" s="8">
+        <v>60650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12595</v>
+      </c>
+      <c r="C34" s="8">
+        <v>6096</v>
+      </c>
+      <c r="D34" s="8">
+        <v>8993</v>
+      </c>
+      <c r="E34" s="8">
+        <v>15633</v>
+      </c>
+      <c r="F34" s="8">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8">
+        <v>19476</v>
+      </c>
+      <c r="C35" s="8">
+        <v>7009</v>
+      </c>
+      <c r="D35" s="8">
+        <v>14045</v>
+      </c>
+      <c r="E35" s="8">
+        <v>11999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>52529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18196</v>
+      </c>
+      <c r="C36" s="8">
+        <v>7957</v>
+      </c>
+      <c r="D36" s="8">
+        <v>12763</v>
+      </c>
+      <c r="E36" s="8">
+        <v>14429</v>
+      </c>
+      <c r="F36" s="8">
+        <v>53345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+      <c r="B37" s="8">
+        <v>16415</v>
+      </c>
+      <c r="C37" s="8">
+        <v>8193</v>
+      </c>
+      <c r="D37" s="8">
+        <v>19236</v>
+      </c>
+      <c r="E37" s="8">
+        <v>15912</v>
+      </c>
+      <c r="F37" s="8">
+        <v>59756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8">
+        <v>10748</v>
+      </c>
+      <c r="C38" s="8">
+        <v>7318</v>
+      </c>
+      <c r="D38" s="8">
+        <v>9540</v>
+      </c>
+      <c r="E38" s="8">
+        <v>9208</v>
+      </c>
+      <c r="F38" s="8">
+        <v>36814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>8</v>
+      </c>
+      <c r="B39" s="8">
+        <v>9034</v>
+      </c>
+      <c r="C39" s="8">
+        <v>9751</v>
+      </c>
+      <c r="D39" s="8">
+        <v>16885</v>
+      </c>
+      <c r="E39" s="8">
+        <v>19380</v>
+      </c>
+      <c r="F39" s="8">
+        <v>55050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>9</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10959</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4147</v>
+      </c>
+      <c r="D40" s="8">
+        <v>12213</v>
+      </c>
+      <c r="E40" s="8">
+        <v>5514</v>
+      </c>
+      <c r="F40" s="8">
+        <v>32833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8">
+        <v>6990</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6871</v>
+      </c>
+      <c r="D41" s="8">
+        <v>21093</v>
+      </c>
+      <c r="E41" s="8">
+        <v>18385</v>
+      </c>
+      <c r="F41" s="8">
+        <v>53339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="8">
-        <v>352231</v>
-      </c>
-      <c r="C31" s="8">
-        <v>357371</v>
-      </c>
-      <c r="D31" s="8">
-        <v>295779</v>
-      </c>
-      <c r="E31" s="8">
-        <v>334017</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1339398</v>
+      <c r="B42" s="8">
+        <v>499928</v>
+      </c>
+      <c r="C42" s="8">
+        <v>220426</v>
+      </c>
+      <c r="D42" s="8">
+        <v>502462</v>
+      </c>
+      <c r="E42" s="8">
+        <v>478639</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1701455</v>
       </c>
     </row>
   </sheetData>
@@ -8725,7 +11237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F7"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -8735,9 +11247,9 @@
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -8757,16 +11269,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -8776,60 +11288,80 @@
       <c r="A5" s="4">
         <v>2016</v>
       </c>
-      <c r="B5" s="12">
-        <v>288</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11">
         <v>558</v>
       </c>
-      <c r="D5" s="12">
-        <v>411</v>
-      </c>
-      <c r="E5" s="12">
-        <v>400</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1657</v>
+      <c r="C5" s="11">
+        <v>132</v>
+      </c>
+      <c r="D5" s="11">
+        <v>257</v>
+      </c>
+      <c r="E5" s="11">
+        <v>391</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2017</v>
       </c>
-      <c r="B6" s="12">
-        <v>206</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="11">
         <v>374</v>
       </c>
-      <c r="D6" s="12">
-        <v>376</v>
-      </c>
-      <c r="E6" s="12">
-        <v>429</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1385</v>
+      <c r="C6" s="11">
+        <v>196</v>
+      </c>
+      <c r="D6" s="11">
+        <v>522</v>
+      </c>
+      <c r="E6" s="11">
+        <v>336</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="11">
+        <v>289</v>
+      </c>
+      <c r="C7" s="11">
+        <v>161</v>
+      </c>
+      <c r="D7" s="11">
+        <v>358</v>
+      </c>
+      <c r="E7" s="11">
+        <v>289</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
-        <v>494</v>
-      </c>
-      <c r="C7" s="12">
-        <v>932</v>
-      </c>
-      <c r="D7" s="12">
-        <v>787</v>
-      </c>
-      <c r="E7" s="12">
-        <v>829</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3042</v>
+      <c r="B8" s="11">
+        <v>1221</v>
+      </c>
+      <c r="C8" s="11">
+        <v>489</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1137</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1016</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3863</v>
       </c>
     </row>
   </sheetData>
@@ -8839,10 +11371,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="13">
+        <v>209.53801169590642</v>
+      </c>
+      <c r="C5" s="13">
+        <v>208.74147727272728</v>
+      </c>
+      <c r="D5" s="13">
+        <v>262.70441176470587</v>
+      </c>
+      <c r="E5" s="13">
+        <v>225.17654986522911</v>
+      </c>
+      <c r="F5" s="13">
+        <v>227.59680486877139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="13">
+        <v>248.21169916434539</v>
+      </c>
+      <c r="C6" s="13">
+        <v>221.20364741641336</v>
+      </c>
+      <c r="D6" s="13">
+        <v>219.748786407767</v>
+      </c>
+      <c r="E6" s="13">
+        <v>236.63292847503374</v>
+      </c>
+      <c r="F6" s="13">
+        <v>232.54594180704441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="13">
+        <v>241.21319796954316</v>
+      </c>
+      <c r="C7" s="13">
+        <v>228.22461538461539</v>
+      </c>
+      <c r="D7" s="13">
+        <v>212.10995542347698</v>
+      </c>
+      <c r="E7" s="13">
+        <v>201.79703703703703</v>
+      </c>
+      <c r="F7" s="13">
+        <v>218.94567137809187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <v>231.0203327171904</v>
+      </c>
+      <c r="C8" s="13">
+        <v>219.11133200795229</v>
+      </c>
+      <c r="D8" s="13">
+        <v>230.80477721635279</v>
+      </c>
+      <c r="E8" s="13">
+        <v>221.79749768303986</v>
+      </c>
+      <c r="F8" s="13">
+        <v>226.70952698201199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14322,12 +16990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14336,15 +17004,15 @@
     <col min="21" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -14362,23 +17030,27 @@
       <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>23</v>
       </c>
     </row>
